--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126141a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126141a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões</t>
   </si>
   <si>
     <t>norte</t>
@@ -422,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,21 +436,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2.182154660674005</v>
@@ -482,131 +470,121 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2.334844961108419</v>
+      </c>
+      <c r="C5">
+        <v>2.516640179535778</v>
+      </c>
+      <c r="D5">
+        <v>2.607571574756238</v>
+      </c>
+      <c r="E5">
+        <v>5.45879096925257</v>
+      </c>
+      <c r="F5">
+        <v>3.498931729003211</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2.334844961108419</v>
+        <v>7.283757878245127</v>
       </c>
       <c r="C6">
-        <v>2.516640179535778</v>
+        <v>7.112170382466702</v>
       </c>
       <c r="D6">
-        <v>2.607571574756238</v>
+        <v>7.062814202654295</v>
       </c>
       <c r="E6">
-        <v>5.45879096925257</v>
+        <v>23.09112801031258</v>
       </c>
       <c r="F6">
-        <v>3.498931729003211</v>
+        <v>11.57493100212936</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.283757878245127</v>
+        <v>5.076348988365006</v>
       </c>
       <c r="C7">
-        <v>7.112170382466702</v>
+        <v>5.808607821690575</v>
       </c>
       <c r="D7">
-        <v>7.062814202654295</v>
+        <v>6.031339713941565</v>
       </c>
       <c r="E7">
-        <v>23.09112801031258</v>
+        <v>13.37351515477572</v>
       </c>
       <c r="F7">
-        <v>11.57493100212936</v>
+        <v>7.348698090398134</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4.101055219049027</v>
+      </c>
+      <c r="C8">
+        <v>4.025614331679859</v>
+      </c>
+      <c r="D8">
+        <v>4.226860341242705</v>
+      </c>
+      <c r="E8">
+        <v>8.146648233249801</v>
+      </c>
+      <c r="F8">
+        <v>6.196289831802927</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>5.076348988365006</v>
+        <v>3.9250985394308</v>
       </c>
       <c r="C9">
-        <v>5.808607821690575</v>
+        <v>4.266106415141097</v>
       </c>
       <c r="D9">
-        <v>6.031339713941565</v>
+        <v>4.500125672521039</v>
       </c>
       <c r="E9">
-        <v>13.37351515477572</v>
+        <v>9.230284097013932</v>
       </c>
       <c r="F9">
-        <v>7.348698090398134</v>
+        <v>6.260831223332445</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>4.101055219049027</v>
+        <v>4.822497614550128</v>
       </c>
       <c r="C10">
-        <v>4.025614331679859</v>
+        <v>5.552280396232995</v>
       </c>
       <c r="D10">
-        <v>4.226860341242705</v>
+        <v>5.625326711490674</v>
       </c>
       <c r="E10">
-        <v>8.146648233249801</v>
+        <v>13.56016185629981</v>
       </c>
       <c r="F10">
-        <v>6.196289831802927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>3.9250985394308</v>
-      </c>
-      <c r="C11">
-        <v>4.266106415141097</v>
-      </c>
-      <c r="D11">
-        <v>4.500125672521039</v>
-      </c>
-      <c r="E11">
-        <v>9.230284097013932</v>
-      </c>
-      <c r="F11">
-        <v>6.260831223332445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>4.822497614550128</v>
-      </c>
-      <c r="C12">
-        <v>5.552280396232995</v>
-      </c>
-      <c r="D12">
-        <v>5.625326711490674</v>
-      </c>
-      <c r="E12">
-        <v>13.56016185629981</v>
-      </c>
-      <c r="F12">
         <v>7.794854174587933</v>
       </c>
     </row>
